--- a/annual_data/1981.xlsx
+++ b/annual_data/1981.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 8, 'job_name': '北京市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '北京市', 'job_name': '北京市农村部宣传处处长'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 5, 'job_name': '北京市农村部宣传处处长'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '北京市', 'job_name': '北京市有线广播管理处干事'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 5, 'job_name': '北京市有线广播管理处干事'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中国机械设备进出口总公司总经理'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央中国机械设备进出口总公司总经理'}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央武汉钢铁(集团)公司炼铁厂三高炉技术员'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 0, 'job_name': '中央武汉钢铁(集团)公司炼铁厂三高炉技术员'}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '中央', 'job_name': '中央中国社会科学院近代历史研究所实习研究员'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 0, 'job_name': '中央中国社会科学院近代历史研究所实习研究员'}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '中央', 'job_name': '中央地质矿产部/厅/局河南石油普查勘探指挥部第四物探大队干事'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央地质矿产部/厅/局河南石油普查勘探指挥部第四物探大队干事'}</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '天津市', 'job_name': '天津市办公厅/室调研处副处长、处长、副主任'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 4, 'job_name': '天津市办公厅/室调研处副处长、处长、副主任'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '天津市', 'job_name': '天津市发展改革/计划委员会长远规划处副处长、处长、副主任'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 5, 'job_name': '天津市发展改革/计划委员会长远规划处副处长、处长、副主任'}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '天津市', 'job_name': '天津市冶金工业部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 6, 'job_name': '天津市冶金工业部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-11-01 00:00:00'), 'location': '天津市', 'job_name': '天津市办公厅/室计划处干部'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-11-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 0, 'job_name': '天津市办公厅/室计划处干部'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-11-01 00:00:00'), 'location': '天津市', 'job_name': '天津市办公厅/室三处处长'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-11-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 5, 'job_name': '天津市办公厅/室三处处长'}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-08-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省中国人民银行江苏省分行副科长'}</t>
+          <t>{'begin_time': Timestamp('1968-08-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江苏省中国人民银行江苏省分行副科长'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-08-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '江苏省徐州市丰县', 'job_name': '江苏省徐州市丰县政府/国务院（综合）副县长'}</t>
+          <t>{'begin_time': Timestamp('1968-08-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '江苏省徐州市丰县', 'type': '政府/国务院', 'rank': 4, 'job_name': '江苏省徐州市丰县政府/国务院（综合）副县长'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-08-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省中国农业银行江苏省分行副科长、副处长、副行长'}</t>
+          <t>{'begin_time': Timestamp('1968-08-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '江苏省', 'type': '中央企业', 'rank': 5, 'job_name': '江苏省中国农业银行江苏省分行副科长、副处长、副行长'}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-11-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '浙江省宁波市象山县', 'job_name': '浙江省宁波市象山县金星公社书记'}</t>
+          <t>{'begin_time': Timestamp('1976-11-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '浙江省宁波市象山县', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市象山县金星公社书记'}</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省浙江省委党校马列主义基础理论专业学员'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '浙江省', 'type': '学校', 'rank': 0, 'job_name': '浙江省浙江省委党校马列主义基础理论专业学员'}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '河北省邯郸市', 'job_name': '河北省邯郸市革命委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '河北省邯郸市', 'type': '政府/国务院', 'rank': 7, 'job_name': '河北省邯郸市革命委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '河北省邯郸市', 'job_name': '河北省邯郸市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '河北省邯郸市', 'type': '党委', 'rank': 7, 'job_name': '河北省邯郸市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '江苏省常州市', 'job_name': '江苏省常州市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '江苏省常州市', 'type': '党委', 'rank': 6, 'job_name': '江苏省常州市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '江苏省常州市', 'job_name': '江苏省常州市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '江苏省常州市', 'type': '政府/国务院', 'rank': 6, 'job_name': '江苏省常州市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '河北省石家庄市', 'job_name': '河北省石家庄市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '河北省石家庄市', 'type': '政府/国务院', 'rank': 6, 'job_name': '河北省石家庄市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '北京市', 'job_name': '北京市水利电力部/厅/局副书记'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市水利电力部/厅/局副书记'}</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '河北省衡水市冀县', 'job_name': '河北省衡水市冀县柏芽公社党委书记'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '河北省衡水市冀县', 'type': '基层组织', 'rank': 0, 'job_name': '河北省衡水市冀县柏芽公社党委书记'}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学中文系学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京大学中文系学生'}</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省西北工业大学飞机系飞机设计专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '陕西省', 'type': '学校', 'rank': 1, 'job_name': '陕西省西北工业大学飞机系飞机设计专业学生'}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京理工大学光电工程系学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京理工大学光电工程系学生'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-06-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '山西省长治市', 'job_name': '山西省长治市潞安矿务局历任数职'}</t>
+          <t>{'begin_time': Timestamp('1970-06-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '山西省长治市', 'type': '国有企业', 'rank': 7, 'job_name': '山西省长治市潞安矿务局历任数职'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-03-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山西省', 'job_name': '山西省煤炭工业部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1975-03-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 6, 'job_name': '山西省煤炭工业部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山西省太原市', 'job_name': '山西省太原市西山矿务局局长'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山西省太原市', 'type': '地方企业', 'rank': 7, 'job_name': '山西省太原市西山矿务局局长'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省抚顺市', 'job_name': '辽宁省抚顺市辽宁抚顺铝厂宣传部副部长、部长'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省抚顺市', 'type': '地方企业', 'rank': 5, 'job_name': '辽宁省抚顺市辽宁抚顺铝厂宣传部副部长、部长'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'job_name': '中央青年工作部（青工部）干事、副处长、副部长'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 6, 'job_name': '中央青年工作部（青工部）干事、副处长、副部长'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市华东师范大学函授学院政治教育专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '广东省广州市', 'type': '学校', 'rank': 0, 'job_name': '广东省广州市华东师范大学函授学院政治教育专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1983-11-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京汽车工业公司共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1983-11-01 00:00:00'), 'location': '北京市', 'type': '地方企业', 'rank': 6, 'job_name': '北京市北京汽车工业公司共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '山西省大同市', 'job_name': '山西省大同市大同矿务局晋华宫矿通风区技术员、助理工程师'}</t>
+          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '山西省大同市', 'type': '政府/国务院', 'rank': 0, 'job_name': '山西省大同市大同矿务局晋华宫矿通风区技术员、助理工程师'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '河北省保定市', 'job_name': '河北省保定市华北电力大学电力工程系发电厂及电力系统专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '河北省保定市', 'type': '学校', 'rank': 1, 'job_name': '河北省保定市华北电力大学电力工程系发电厂及电力系统专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省浙江师范学院数学系数学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '浙江省', 'type': '学校', 'rank': 1, 'job_name': '浙江省浙江师范学院数学系数学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '江西省', 'job_name': '江西省江西冶金学院炼钢专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '江西省', 'type': '学校', 'rank': 1, 'job_name': '江西省江西冶金学院炼钢专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '内蒙古自治区呼伦贝尔市', 'job_name': '内蒙古自治区呼伦贝尔市办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '内蒙古自治区呼伦贝尔市', 'type': '政府/国务院', 'rank': 5, 'job_name': '内蒙古自治区呼伦贝尔市办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '内蒙古自治区包头市', 'job_name': '内蒙古自治区包头市组织部办公厅/室干事、副主任'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '内蒙古自治区包头市', 'type': '党委', 'rank': 4, 'job_name': '内蒙古自治区包头市组织部办公厅/室干事、副主任'}</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区内蒙古大学汉语系汉语言文学学生'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '内蒙古自治区', 'type': '学校', 'rank': 0, 'job_name': '内蒙古自治区内蒙古大学汉语系汉语言文学学生'}</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '内蒙古自治区呼和浩特市', 'job_name': '内蒙古自治区呼和浩特市内蒙古自治区呼和浩特市委党校教员'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '内蒙古自治区呼和浩特市', 'type': '学校', 'rank': 1, 'job_name': '内蒙古自治区呼和浩特市内蒙古自治区呼和浩特市委党校教员'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学法律系经济法学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京大学法律系经济法学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省抚顺市', 'job_name': '辽宁省抚顺市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省抚顺市', 'type': '政府/国务院', 'rank': 7, 'job_name': '辽宁省抚顺市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省抚顺市', 'job_name': '辽宁省抚顺市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省抚顺市', 'type': '党委', 'rank': 7, 'job_name': '辽宁省抚顺市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '辽宁省大连市', 'job_name': '辽宁省大连市大连油泵油嘴厂企改办历任数职'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '辽宁省大连市', 'type': '地方企业', 'rank': 5, 'job_name': '辽宁省大连市大连油泵油嘴厂企改办历任数职'}</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市松陵机械厂（沈阳飞机制造公司）设计科副科长'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '地方企业', 'rank': 0, 'job_name': '辽宁省沈阳市松陵机械厂（沈阳飞机制造公司）设计科副科长'}</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国社会科学院研究生院国际新闻专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 1, 'job_name': '中央中国社会科学院研究生院国际新闻专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '辽宁省大连市', 'job_name': '辽宁省大连市大连海事大学共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '辽宁省大连市', 'type': '学校', 'rank': 0, 'job_name': '辽宁省大连市大连海事大学共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '中央', 'job_name': '中央航天工业（第七机械）工业部/厅/局一院十四所四室设计员'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 1, 'job_name': '中央航天工业（第七机械）工业部/厅/局一院十四所四室设计员'}</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省经济贸易委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 7, 'job_name': '吉林省经济贸易委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '河南省', 'job_name': '河南省发展改革/计划委员会副主任、主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 7, 'job_name': '河南省发展改革/计划委员会副主任、主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 8, 'job_name': '河南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-08-01 00:00:00'), 'end_time': Timestamp('1986-01-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省电力工业部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1975-08-01 00:00:00'), 'end_time': Timestamp('1986-01-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 6, 'job_name': '吉林省电力工业部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'job_name': '中央机械工业（第一机械）部/厅/局计划局处长'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 5, 'job_name': '中央机械工业（第一机械）部/厅/局计划局处长'}</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1987-04-01 00:00:00'), 'location': '中央', 'job_name': '中央青农部干部'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1987-04-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 0, 'job_name': '中央青农部干部'}</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1987-04-01 00:00:00'), 'location': '中央', 'job_name': '中央青农部副处长、处长'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1987-04-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 5, 'job_name': '中央青农部副处长、处长'}</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国人民大学函授学院中文专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 5, 'job_name': '北京市中国人民大学函授学院中文专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-05-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省农村工作部干事'}</t>
+          <t>{'begin_time': Timestamp('1975-05-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 0, 'job_name': '吉林省农村工作部干事'}</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-05-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省农业研究室干事'}</t>
+          <t>{'begin_time': Timestamp('1975-05-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 0, 'job_name': '吉林省农业研究室干事'}</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省吉林农业大学农经专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '吉林省', 'type': '学校', 'rank': 0, 'job_name': '吉林省吉林农业大学农经专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-11-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区内蒙古师范大学政教学院政教专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-11-01 00:00:00'), 'location': '内蒙古自治区', 'type': '学校', 'rank': 0, 'job_name': '内蒙古自治区内蒙古师范大学政教学院政教专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '上海市', 'job_name': '上海市南京理工大学炮弹系触发引信设计与制造专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 1, 'job_name': '上海市南京理工大学炮弹系触发引信设计与制造专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省西安电子科技大学基础部应用物理专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '陕西省', 'type': '学校', 'rank': 1, 'job_name': '陕西省西安电子科技大学基础部应用物理专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1985-05-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1985-05-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市哈尔滨林业机械厂副厂长、总工程师'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '地方企业', 'rank': 4, 'job_name': '黑龙江省哈尔滨市哈尔滨林业机械厂副厂长、总工程师'}</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '黑龙江省大庆市肇源县', 'job_name': '黑龙江省大庆市肇源县政府/国务院（综合）副县长'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '黑龙江省大庆市肇源县', 'type': '政府/国务院', 'rank': 4, 'job_name': '黑龙江省大庆市肇源县政府/国务院（综合）副县长'}</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1984-02-01 00:00:00'), 'location': '山东省泰安市泰安市（县级）', 'job_name': '山东省泰安市泰安市（县级）党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1984-02-01 00:00:00'), 'location': '山东省泰安市泰安市（县级）', 'type': '党委', 'rank': 4, 'job_name': '山东省泰安市泰安市（县级）党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-02-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '河北省石家庄市', 'job_name': '河北省石家庄市办公厅/室资料科干事、科长'}</t>
+          <t>{'begin_time': Timestamp('1976-02-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '河北省石家庄市', 'type': '党委', 'rank': 0, 'job_name': '河北省石家庄市办公厅/室资料科干事、科长'}</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '河北省', 'job_name': '河北省河北师范大学夜大政教系学生'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '河北省', 'type': '学校', 'rank': 0, 'job_name': '河北省河北师范大学夜大政教系学生'}</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '中央', 'job_name': '中央进出口管理委员会副主任兼秘书长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央进出口管理委员会副主任兼秘书长'}</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '中央', 'job_name': '中央经济贸易委员会燃动局处长'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 5, 'job_name': '中央经济贸易委员会燃动局处长'}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海石化通用机械制造公司副经理'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 6, 'job_name': '上海市上海石化通用机械制造公司副经理'}</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海工学院/上海工业大学冶金工程系主任、教授'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 5, 'job_name': '上海市上海工学院/上海工业大学冶金工程系主任、教授'}</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-09-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '上海市', 'job_name': '上海市彭浦机器厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1970-09-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 0, 'job_name': '上海市彭浦机器厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1982-11-01 00:00:00'), 'location': '上海市', 'job_name': '上海市化工装备工业公司共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1982-11-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 0, 'job_name': '上海市化工装备工业公司共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-04-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '浙江省台州市黄岩县', 'job_name': '浙江省台州市黄岩县公安部/厅/局澄江派出所办事员、副所长'}</t>
+          <t>{'begin_time': Timestamp('1977-04-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '浙江省台州市黄岩县', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省台州市黄岩县公安部/厅/局澄江派出所办事员、副所长'}</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京对外贸易学院对外贸易系海关管理专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京对外贸易学院对外贸易系海关管理专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'job_name': '中央知青工作领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央知青工作领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'job_name': '中央计划生育委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1973-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央计划生育委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '中央', 'job_name': '中央中国青年报干部'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '中央', 'type': '新闻媒体', 'rank': 0, 'job_name': '中央中国青年报干部'}</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京化工学院高分子系高分子化工专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京化工学院高分子系高分子化工专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学法学院学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京大学法学院学生'}</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '山西省', 'job_name': '山西省太原机械学院机械工程系机械制造工艺与设备专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '山西省', 'type': '学校', 'rank': 1, 'job_name': '山西省太原机械学院机械工程系机械制造工艺与设备专业学生'}</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市绍兴县', 'job_name': '浙江省绍兴市绍兴县党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市绍兴县', 'type': '党委', 'rank': 4, 'job_name': '浙江省绍兴市绍兴县党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市绍兴县', 'job_name': '浙江省绍兴市绍兴县政府/国务院（综合）副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市绍兴县', 'type': '政府/国务院', 'rank': 4, 'job_name': '浙江省绍兴市绍兴县政府/国务院（综合）副主任'}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市绍兴县', 'job_name': '浙江省绍兴市绍兴县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市绍兴县', 'type': '党委', 'rank': 5, 'job_name': '浙江省绍兴市绍兴县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市', 'job_name': '浙江省绍兴市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省绍兴市', 'type': '党委', 'rank': 6, 'job_name': '浙江省绍兴市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省农业部/厅/局副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 6, 'job_name': '浙江省农业部/厅/局副主任'}</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省嘉兴市', 'job_name': '浙江省嘉兴市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省嘉兴市', 'type': '党委', 'rank': 6, 'job_name': '浙江省嘉兴市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）秘书长'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省政府/国务院（综合）秘书长'}</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-07-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省电力工业部/厅/局局长'}</t>
+          <t>{'begin_time': Timestamp('1977-07-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省电力工业部/厅/局局长'}</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-07-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省经济体制改革委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-07-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省经济体制改革委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学210教研组教师'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 1, 'job_name': '上海市上海交通大学210教研组教师'}</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 0, 'job_name': '上海市上海交通大学共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学政治部秘书'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 0, 'job_name': '上海市上海交通大学政治部秘书'}</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市共青团委常委'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '共青团', 'rank': 5, 'job_name': '上海市共青团委常委'}</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市学校部部长'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '共青团', 'rank': 5, 'job_name': '上海市学校部部长'}</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '共青团', 'rank': 6, 'job_name': '上海市共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市办公厅/室副主任'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市办公厅/室副主任'}</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副秘书长、秘书长'}</t>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市政府/国务院（综合）副秘书长、秘书长'}</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-07-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省富春江水电厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1977-07-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '浙江省', 'type': '地方企业', 'rank': 5, 'job_name': '浙江省富春江水电厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省机械工业（第一机械）部/厅/局企业管理处工程师'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 5, 'job_name': '浙江省机械工业（第一机械）部/厅/局企业管理处工程师'}</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '天津市河西区', 'job_name': '天津市河西区共青团委常委、副书记'}</t>
+          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '天津市河西区', 'type': '共青团', 'rank': 4, 'job_name': '天津市河西区共青团委常委、副书记'}</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '天津市河西区', 'job_name': '天津市河西区天津市河西区职工大学学员'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '天津市河西区', 'type': '学校', 'rank': 5, 'job_name': '天津市河西区天津市河西区职工大学学员'}</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1988-02-01 00:00:00'), 'location': '安徽省合肥市', 'job_name': '安徽省合肥市人民法院助理审判员、审判员、副庭长、庭长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1988-02-01 00:00:00'), 'location': '安徽省合肥市', 'type': '法院_检察院', 'rank': 0, 'job_name': '安徽省合肥市人民法院助理审判员、审判员、副庭长、庭长'}</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京航空航天大学学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京航空航天大学学生'}</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 7, 'job_name': '安徽省组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-04-01 00:00:00'), 'end_time': Timestamp('1984-01-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省农业部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1977-04-01 00:00:00'), 'end_time': Timestamp('1984-01-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 6, 'job_name': '吉林省农业部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-05-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省赣州市', 'job_name': '江西省赣州市宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1980-05-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省赣州市', 'type': '党委', 'rank': 6, 'job_name': '江西省赣州市宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '江苏省徐州市', 'job_name': '江苏省徐州市革命委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '江苏省徐州市', 'type': '政府/国务院', 'rank': 6, 'job_name': '江苏省徐州市革命委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '吉林省四平市', 'job_name': '吉林省四平市农村工作办公室副科长'}</t>
+          <t>{'begin_time': Timestamp('1976-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '吉林省四平市', 'type': '政府/国务院', 'rank': 0, 'job_name': '吉林省四平市农村工作办公室副科长'}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '吉林省四平市', 'job_name': '吉林省四平市政策研究室研究院'}</t>
+          <t>{'begin_time': Timestamp('1976-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '吉林省四平市', 'type': '党委', 'rank': 0, 'job_name': '吉林省四平市政策研究室研究院'}</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '吉林省四平市', 'job_name': '吉林省四平市党委常委会/政治局秘书'}</t>
+          <t>{'begin_time': Timestamp('1976-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '吉林省四平市', 'type': '党委', 'rank': 0, 'job_name': '吉林省四平市党委常委会/政治局秘书'}</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省贵阳师范学院办公厅/室工作人员'}</t>
+          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '贵州省', 'type': '学校', 'rank': 0, 'job_name': '贵州省贵阳师范学院办公厅/室工作人员'}</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省吉林大学经济系政治经济学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '吉林省', 'type': '学校', 'rank': 1, 'job_name': '吉林省吉林大学经济系政治经济学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '河北省沧州市', 'job_name': '河北省沧州市经济贸易委员会调度室干部、主任'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '河北省沧州市', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省沧州市经济贸易委员会调度室干部、主任'}</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-12-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省教育部/厅/局人事处副处长'}</t>
+          <t>{'begin_time': Timestamp('1974-12-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 4, 'job_name': '吉林省教育部/厅/局人事处副处长'}</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-12-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省教育部/厅/局干部处副处长、处长'}</t>
+          <t>{'begin_time': Timestamp('1974-12-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 5, 'job_name': '吉林省教育部/厅/局干部处副处长、处长'}</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-12-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省教育部/厅/局副厅长'}</t>
+          <t>{'begin_time': Timestamp('1974-12-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 6, 'job_name': '吉林省教育部/厅/局副厅长'}</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '河南省', 'job_name': '河南省华北水利水电学院水利水电建设工程专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '河南省', 'type': '学校', 'rank': 1, 'job_name': '河南省华北水利水电学院水利水电建设工程专业学生'}</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '中央', 'job_name': '中央第二汽车制造厂副厂长'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央第二汽车制造厂副厂长'}</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '福建省', 'job_name': '福建省厦门水产学院鱼机系副主任、主任'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '福建省', 'type': '学校', 'rank': 5, 'job_name': '福建省厦门水产学院鱼机系副主任、主任'}</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省石油工业部/厅/局调度室主任'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 5, 'job_name': '山东省石油工业部/厅/局调度室主任'}</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省化学工业部/厅/局调度室主任'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 5, 'job_name': '山东省化学工业部/厅/局调度室主任'}</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-04-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '', 'job_name': '军事委员会办公厅/室秘书'}</t>
+          <t>{'begin_time': Timestamp('1979-04-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '军事委员会办公厅/室秘书'}</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-04-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '中央', 'job_name': '中央办公厅/室秘书'}</t>
+          <t>{'begin_time': Timestamp('1979-04-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央办公厅/室秘书'}</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市哈尔滨建筑工程学院（现哈尔滨工业大学）建筑工程系工业与民用建筑专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '学校', 'rank': 1, 'job_name': '黑龙江省哈尔滨市哈尔滨建筑工程学院（现哈尔滨工业大学）建筑工程系工业与民用建筑专业学生'}</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'job_name': '江西省景德镇市政府/国务院（综合）教育组干部'}</t>
+          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省景德镇市政府/国务院（综合）教育组干部'}</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'job_name': '江西省景德镇市景德镇六中教研组组长'}</t>
+          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'type': '学校', 'rank': 0, 'job_name': '江西省景德镇市景德镇六中教研组组长'}</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'job_name': '江西省景德镇市景德镇六中团总支团总支副书记'}</t>
+          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'type': '学校', 'rank': 0, 'job_name': '江西省景德镇市景德镇六中团总支团总支副书记'}</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '福建省福州市', 'job_name': '福建省福州市教育部/厅/局干部、副科长'}</t>
+          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '福建省福州市', 'type': '政府/国务院', 'rank': 0, 'job_name': '福建省福州市教育部/厅/局干部、副科长'}</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '福建省福州市', 'job_name': '福建省福州市统战部部长'}</t>
+          <t>{'begin_time': Timestamp('1971-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '福建省福州市', 'type': '共青团', 'rank': 5, 'job_name': '福建省福州市统战部部长'}</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '中央', 'job_name': '中央大庆石油学院学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 1, 'job_name': '中央大庆石油学院学生'}</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国人民大学中文系中国文学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市中国人民大学中文系中国文学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市科学技术委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '政府/国务院', 'rank': 5, 'job_name': '湖北省武汉市科学技术委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市革新改造挖潜指挥部副指挥长'}</t>
+          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '政府/国务院', 'rank': 5, 'job_name': '湖北省武汉市革新改造挖潜指挥部副指挥长'}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市科学技术委员会历任数职'}</t>
+          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '政府/国务院', 'rank': 5, 'job_name': '湖北省武汉市科学技术委员会历任数职'}</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市科学技术协会副主席'}</t>
+          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '行业协会_人民团体', 'rank': 5, 'job_name': '湖北省武汉市科学技术协会副主席'}</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省景德镇市', 'job_name': '江西省景德镇市工业交通部主任'}</t>
+          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省景德镇市', 'type': '党委', 'rank': 6, 'job_name': '江西省景德镇市工业交通部主任'}</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'job_name': '江西省景德镇市经济贸易委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江西省景德镇市', 'type': '政府/国务院', 'rank': 6, 'job_name': '江西省景德镇市经济贸易委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-09-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省', 'job_name': '江西省发展改革/计划委员会综合处干部'}</t>
+          <t>{'begin_time': Timestamp('1972-09-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省发展改革/计划委员会综合处干部'}</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '江苏省无锡市江阴县', 'job_name': '江苏省无锡市江阴县江阴化肥厂技术员'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '江苏省无锡市江阴县', 'type': '地方企业', 'rank': 0, 'job_name': '江苏省无锡市江阴县江阴化肥厂技术员'}</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '江苏省无锡市江阴县', 'job_name': '江苏省无锡市江阴县江阴氮肥厂副厂长'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '江苏省无锡市江阴县', 'type': '地方企业', 'rank': 0, 'job_name': '江苏省无锡市江阴县江阴氮肥厂副厂长'}</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '江苏省无锡市江阴县', 'job_name': '江苏省无锡市江阴县江阴化肥总厂厂长'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '江苏省无锡市江阴县', 'type': '地方企业', 'rank': 0, 'job_name': '江苏省无锡市江阴县江阴化肥总厂厂长'}</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市武汉水利电力学院农田水利工程系农田水利工程专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省武汉市', 'type': '学校', 'rank': 1, 'job_name': '湖北省武汉市武汉水利电力学院农田水利工程系农田水利工程专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '浙江省衢州市', 'job_name': '浙江省衢州市衢州市化学工业公司电化厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '浙江省衢州市', 'type': '地方企业', 'rank': 0, 'job_name': '浙江省衢州市衢州市化学工业公司电化厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省湖南师范大学（湖南师范学院）政治教育系政治经济学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '湖南省', 'type': '学校', 'rank': 1, 'job_name': '湖南省湖南师范大学（湖南师范学院）政治教育系政治经济学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1984-01-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1984-01-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 8, 'job_name': '山东省党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '山东省济宁市汶上县', 'job_name': '山东省济宁市汶上县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '山东省济宁市汶上县', 'type': '党委', 'rank': 5, 'job_name': '山东省济宁市汶上县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-09-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省', 'job_name': '山东省冶金工业部/厅/局厅长'}</t>
+          <t>{'begin_time': Timestamp('1976-09-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 7, 'job_name': '山东省冶金工业部/厅/局厅长'}</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校学员'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校学员'}</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1984-11-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局茂名石油公司党委常委、计划处处长、副经理'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1984-11-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央石油工业部/厅/局茂名石油公司党委常委、计划处处长、副经理'}</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省黑龙江大学哲学系哲学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省', 'type': '学校', 'rank': 0, 'job_name': '黑龙江省黑龙江大学哲学系哲学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省黑龙江大学哲学系党支部副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省', 'type': '学校', 'rank': 0, 'job_name': '黑龙江省黑龙江大学哲学系党支部副书记'}</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '天津市', 'job_name': '天津市南开大学哲学系哲学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '天津市', 'type': '学校', 'rank': 1, 'job_name': '天津市南开大学哲学系哲学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省泰安市泰安县', 'job_name': '山东省泰安市泰安县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省泰安市泰安县', 'type': '党委', 'rank': 6, 'job_name': '山东省泰安市泰安县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省泰安市泰安县', 'job_name': '山东省泰安市泰安县革命委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省泰安市泰安县', 'type': '政府/国务院', 'rank': 6, 'job_name': '山东省泰安市泰安县革命委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省泰安市', 'job_name': '山东省泰安市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '山东省泰安市', 'type': '党委', 'rank': 6, 'job_name': '山东省泰安市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学法律系学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京大学法律系学生'}</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '共青团', 'rank': 7, 'job_name': '宁夏回族自治区共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '中央', 'job_name': '中央人民日报社技术处干部'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央人民日报社技术处干部'}</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省财贸政治部副主任'}</t>
+          <t>{'begin_time': Timestamp('1974-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 7, 'job_name': '湖北省财贸政治部副主任'}</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省财贸办公室政治处副主任'}</t>
+          <t>{'begin_time': Timestamp('1974-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 7, 'job_name': '湖北省财贸办公室政治处副主任'}</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省中国建设银行湖北分行行长'}</t>
+          <t>{'begin_time': Timestamp('1974-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '湖北省', 'type': '中央企业', 'rank': 7, 'job_name': '湖北省中国建设银行湖北分行行长'}</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-05-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中国科学院高能物理研究所负责人、总工程师、副所长'}</t>
+          <t>{'begin_time': Timestamp('1978-05-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 5, 'job_name': '中央中国科学院高能物理研究所负责人、总工程师、副所长'}</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局兰州石油化工机器厂副厂长、党委副书记、副总工程师'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央石油工业部/厅/局兰州石油化工机器厂副厂长、党委副书记、副总工程师'}</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1969-11-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '江西省', 'job_name': '江西省南昌飞机制造厂设计所副所长、厂副书记'}</t>
+          <t>{'begin_time': Timestamp('1969-11-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '江西省', 'type': '地方企业', 'rank': 6, 'job_name': '江西省南昌飞机制造厂设计所副所长、厂副书记'}</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-11-01 00:00:00'), 'end_time': Timestamp('1985-08-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省宜昌船厂副厂长、厂长'}</t>
+          <t>{'begin_time': Timestamp('1979-11-01 00:00:00'), 'end_time': Timestamp('1985-08-01 00:00:00'), 'location': '湖北省', 'type': '地方企业', 'rank': 4, 'job_name': '湖北省宜昌船厂副厂长、厂长'}</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省吉林大学历史系历史学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '吉林省', 'type': '学校', 'rank': 1, 'job_name': '吉林省吉林大学历史系历史学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '辽宁省盘锦市', 'job_name': '辽宁省盘锦市第四化工建设公司经理、总工程师'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '辽宁省盘锦市', 'type': '中央企业', 'rank': 7, 'job_name': '辽宁省盘锦市第四化工建设公司经理、总工程师'}</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖南省湘西土家族苗族自治州龙山县', 'job_name': '湖南省湘西土家族苗族自治州龙山县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖南省湘西土家族苗族自治州龙山县', 'type': '党委', 'rank': 5, 'job_name': '湖南省湘西土家族苗族自治州龙山县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-02-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '湖南省岳阳市', 'job_name': '湖南省岳阳市岳阳化工总厂办公厅/室秘书、副科长、副主任'}</t>
+          <t>{'begin_time': Timestamp('1975-02-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '湖南省岳阳市', 'type': '地方企业', 'rank': 0, 'job_name': '湖南省岳阳市岳阳化工总厂办公厅/室秘书、副科长、副主任'}</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-08-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央船舶工业（第六机械）工业部/厅/局6214厂技术员、副科长、科长'}</t>
+          <t>{'begin_time': Timestamp('1970-08-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央船舶工业（第六机械）工业部/厅/局6214厂技术员、副科长、科长'}</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市西南政法学院法律系学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '重庆市', 'type': '学校', 'rank': 1, 'job_name': '重庆市西南政法学院法律系学生'}</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '上海市', 'job_name': '上海市农场局共青团委副书记、书记'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 5, 'job_name': '上海市农场局共青团委副书记、书记'}</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市哈尔滨建筑工程学院（现哈尔滨工业大学）机械系机械制造专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '学校', 'rank': 1, 'job_name': '黑龙江省哈尔滨市哈尔滨建筑工程学院（现哈尔滨工业大学）机械系机械制造专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '广东省广州市', 'type': '政府/国务院', 'rank': 8, 'job_name': '广东省广州市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '广东省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '广东省', 'job_name': '广东省科学技术委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '广东省科学技术委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广东省佛山市', 'job_name': '广东省佛山市佛山市分析仪器厂副厂长、厂长'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广东省佛山市', 'type': '地方企业', 'rank': 5, 'job_name': '广东省佛山市佛山市分析仪器厂副厂长、厂长'}</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '广东省韶关市', 'job_name': '广东省韶关市共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '广东省韶关市', 'type': '共青团', 'rank': 5, 'job_name': '广东省韶关市共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省辽宁工程技术大学工程力学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '辽宁省', 'type': '学校', 'rank': 1, 'job_name': '辽宁省辽宁工程技术大学工程力学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'job_name': '广西壮族自治区南宁市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区南宁市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'job_name': '广西壮族自治区南宁市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'type': '党委', 'rank': 7, 'job_name': '广西壮族自治区南宁市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'job_name': '中央铁道部/厅/局柳州铁路局南宁分局副总工程师'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 4, 'job_name': '中央铁道部/厅/局柳州铁路局南宁分局副总工程师'}</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '广西壮族自治区百色市德保县', 'job_name': '广西壮族自治区百色市德保县基本建设局副局长'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '广西壮族自治区百色市德保县', 'type': '政府/国务院', 'rank': 0, 'job_name': '广西壮族自治区百色市德保县基本建设局副局长'}</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '广西壮族自治区百色市德保县', 'job_name': '广西壮族自治区百色市德保县发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-12-01 00:00:00'), 'location': '广西壮族自治区百色市德保县', 'type': '政府/国务院', 'rank': 0, 'job_name': '广西壮族自治区百色市德保县发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中央民族学院政治系政治经济学学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市中央民族学院政治系政治经济学学生'}</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区广西大学哲学系哲学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '广西壮族自治区', 'type': '学校', 'rank': 0, 'job_name': '广西壮族自治区广西大学哲学系哲学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '联邦德国（西德）', 'job_name': '联邦德国（西德）外交部驻德意志联邦共和国使馆科技参赞'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '联邦德国（西德）', 'type': '政府/国务院', 'rank': 6, 'job_name': '联邦德国（西德）外交部驻德意志联邦共和国使馆科技参赞'}</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖南省常德市', 'job_name': '湖南省常德市常德七一机械厂副厂长、厂长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖南省常德市', 'type': '地方企业', 'rank': 5, 'job_name': '湖南省常德市常德七一机械厂副厂长、厂长'}</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局长庆油田测井总站副站长、党委常委'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 4, 'job_name': '中央石油工业部/厅/局长庆油田测井总站副站长、党委常委'}</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '江苏省镇江市', 'job_name': '江苏省镇江市教育部/厅/局干事'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '江苏省镇江市', 'type': '政府/国务院', 'rank': 0, 'job_name': '江苏省镇江市教育部/厅/局干事'}</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '江苏省镇江市', 'job_name': '江苏省镇江市组织部干事'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '江苏省镇江市', 'type': '党委', 'rank': 0, 'job_name': '江苏省镇江市组织部干事'}</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '福建省南平市邵武县', 'job_name': '福建省南平市邵武县洪墩公社革命委员会党委书记、主任'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '福建省南平市邵武县', 'type': '基层组织', 'rank': 0, 'job_name': '福建省南平市邵武县洪墩公社革命委员会党委书记、主任'}</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '浙江省温州市', 'job_name': '浙江省温州市温州医学院儿科系学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '浙江省温州市', 'type': '学校', 'rank': 1, 'job_name': '浙江省温州市温州医学院儿科系学生'}</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '四川省', 'job_name': '四川省机械工业（第一机械）部/厅/局副厅长、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 6, 'job_name': '四川省机械工业（第一机械）部/厅/局副厅长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '四川省重庆市彭水苗族土家族自治县', 'job_name': '四川省重庆市彭水苗族土家族自治县办公厅/室干事、副主任'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '四川省重庆市彭水苗族土家族自治县', 'type': '党委', 'rank': 0, 'job_name': '四川省重庆市彭水苗族土家族自治县办公厅/室干事、副主任'}</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海焦化厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 0, 'job_name': '上海市上海焦化厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市华中理工大学固体电子学系固体电子专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '湖北省武汉市', 'type': '学校', 'rank': 1, 'job_name': '湖北省武汉市华中理工大学固体电子学系固体电子专业学生'}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省温江地区', 'job_name': '四川省温江地区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省温江地区', 'type': '党委', 'rank': 7, 'job_name': '四川省温江地区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局兰州炼油厂筹建处历任数职副总工程师'}</t>
+          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 5, 'job_name': '中央石油工业部/厅/局兰州炼油厂筹建处历任数职副总工程师'}</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局生产技术司处长'}</t>
+          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 5, 'job_name': '中央石油工业部/厅/局生产技术司处长'}</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央石油化学工业部/厅/局炼油化工组副组长'}</t>
+          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 6, 'job_name': '中央石油化学工业部/厅/局炼油化工组副组长'}</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央化学工业部/厅/局计划司司长'}</t>
+          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央化学工业部/厅/局计划司司长'}</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央国家能源委员会科技局局长'}</t>
+          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央国家能源委员会科技局局长'}</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油化工总公司历任数职'}</t>
+          <t>{'begin_time': Timestamp('1956-01-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油化工总公司历任数职'}</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市公交办公室副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市公交办公室副主任'}</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市工业调整办公室副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市工业调整办公室副主任'}</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市经济贸易委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市经济贸易委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市电子领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市电子领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市进出口委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市进出口委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市对外经济贸易部/厅/局副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 6, 'job_name': '北京市对外经济贸易部/厅/局副主任'}</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京经济建设总公司总经理'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '北京市', 'type': '地方企业', 'rank': 6, 'job_name': '北京市北京经济建设总公司总经理'}</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '四川省自贡市', 'job_name': '四川省自贡市中国焊条厂副厂长、总工程师'}</t>
+          <t>{'begin_time': Timestamp('1975-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '四川省自贡市', 'type': '地方企业', 'rank': 4, 'job_name': '四川省自贡市中国焊条厂副厂长、总工程师'}</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '四川省自贡市', 'job_name': '四川省自贡市焊接材料研究所所长'}</t>
+          <t>{'begin_time': Timestamp('1975-08-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '四川省自贡市', 'type': '地方企业', 'rank': 4, 'job_name': '四川省自贡市焊接材料研究所所长'}</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-11-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '四川省成都市彭县', 'job_name': '四川省成都市彭县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-11-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '四川省成都市彭县', 'type': '党委', 'rank': 5, 'job_name': '四川省成都市彭县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市复旦大学经济系政治经济学学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 1, 'job_name': '上海市复旦大学经济系政治经济学学生'}</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省长沙铁道兵学院政治部正连职干事'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '湖南省', 'type': '学校', 'rank': 0, 'job_name': '湖南省长沙铁道兵学院政治部正连职干事'}</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1986-07-01 00:00:00'), 'location': '山东省', 'job_name': '山东省山东医科大学医学系学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1986-07-01 00:00:00'), 'location': '山东省', 'type': '学校', 'rank': 1, 'job_name': '山东省山东医科大学医学系学生'}</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省革命委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 8, 'job_name': '贵州省革命委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-02 00:00:00'), 'end_time': Timestamp('1983-06-02 00:00:00'), 'location': '贵州省', 'job_name': '贵州省科学技术委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1977-06-02 00:00:00'), 'end_time': Timestamp('1983-06-02 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 8, 'job_name': '贵州省科学技术委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-03 00:00:00'), 'end_time': Timestamp('1983-06-03 00:00:00'), 'location': '贵州省', 'job_name': '贵州省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1977-06-03 00:00:00'), 'end_time': Timestamp('1983-06-03 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 8, 'job_name': '贵州省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市塑料制品公司技术科科长'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 5, 'job_name': '上海市塑料制品公司技术科科长'}</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '吉林省长春市九台市', 'job_name': '吉林省长春市九台市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '吉林省长春市九台市', 'type': '党委', 'rank': 4, 'job_name': '吉林省长春市九台市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-05-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '湖北省荆门市大悟县', 'job_name': '湖北省荆门市大悟县政府/国务院（综合）县长'}</t>
+          <t>{'begin_time': Timestamp('1979-05-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '湖北省荆门市大悟县', 'type': '政府/国务院', 'rank': 5, 'job_name': '湖北省荆门市大悟县政府/国务院（综合）县长'}</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'job_name': '中央经济贸易委员会重工业局建材处工程师、副处长'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1986-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 4, 'job_name': '中央经济贸易委员会重工业局建材处工程师、副处长'}</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '广东省河源市和平县', 'job_name': '广东省河源市和平县人大常委会副主任'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '广东省河源市和平县', 'type': '人大', 'rank': 4, 'job_name': '广东省河源市和平县人大常委会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '山东省青岛市莱西市', 'job_name': '山东省青岛市莱西市共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '山东省青岛市莱西市', 'type': '共青团', 'rank': 4, 'job_name': '山东省青岛市莱西市共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '山东省', 'job_name': '山东省山东省委党校干部专修科学员'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '山东省', 'type': '学校', 'rank': 4, 'job_name': '山东省山东省委党校干部专修科学员'}</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海财经学院工业经济专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 1, 'job_name': '上海市上海财经学院工业经济专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省贵州大学历史系历史专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '贵州省', 'type': '学校', 'rank': 0, 'job_name': '贵州省贵州大学历史系历史专业学生'}</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '云南省玉溪市', 'job_name': '云南省玉溪市政府/国务院（综合）专员'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '云南省玉溪市', 'type': '政府/国务院', 'rank': 7, 'job_name': '云南省玉溪市政府/国务院（综合）专员'}</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '云南省玉溪市', 'job_name': '云南省玉溪市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '云南省玉溪市', 'type': '党委', 'rank': 7, 'job_name': '云南省玉溪市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '云南省', 'job_name': '云南省地质矿产部/厅/局副局长、副总工程师'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 5, 'job_name': '云南省地质矿产部/厅/局副局长、副总工程师'}</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省工业交通(政治)部办公厅/室副主任'}</t>
+          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 4, 'job_name': '黑龙江省工业交通(政治)部办公厅/室副主任'}</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省经济贸易委员会办公厅/室副主任'}</t>
+          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 4, 'job_name': '黑龙江省经济贸易委员会办公厅/室副主任'}</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省经济贸易委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 6, 'job_name': '黑龙江省经济贸易委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '党委', 'rank': 6, 'job_name': '黑龙江省哈尔滨市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '政府/国务院', 'rank': 7, 'job_name': '黑龙江省哈尔滨市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政府/国务院（综合）省长助理'}</t>
+          <t>{'begin_time': Timestamp('1968-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '黑龙江省政府/国务院（综合）省长助理'}</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1968-02-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '四川省', 'job_name': '四川省四川东方汽轮机厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1968-02-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '四川省', 'type': '地方企业', 'rank': 0, 'job_name': '四川省四川东方汽轮机厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-11-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖南省永州市', 'job_name': '湖南省永州市宣传部干事'}</t>
+          <t>{'begin_time': Timestamp('1976-11-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖南省永州市', 'type': '党委', 'rank': 0, 'job_name': '湖南省永州市宣传部干事'}</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广西壮族自治区玉林市贵港市', 'job_name': '广西壮族自治区玉林市贵港市宣传部新闻干事'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广西壮族自治区玉林市贵港市', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区玉林市贵港市宣传部新闻干事'}</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '上海市静安区', 'job_name': '上海市静安区静安区果品公司团总支副书记、书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '上海市静安区', 'type': '地方企业', 'rank': 0, 'job_name': '上海市静安区静安区果品公司团总支副书记、书记'}</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1984-01-01 00:00:00'), 'location': '上海市静安区', 'job_name': '上海市静安区静安区业余大学汉语言文学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1984-01-01 00:00:00'), 'location': '上海市静安区', 'type': '学校', 'rank': 0, 'job_name': '上海市静安区静安区业余大学汉语言文学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市第二轻工部/厅/局办公厅/室秘书科秘书'}</t>
+          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '湖北省武汉市', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖北省武汉市第二轻工部/厅/局办公厅/室秘书科秘书'}</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区日喀则地区', 'job_name': '西藏自治区日喀则地区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区日喀则地区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区日喀则地区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区日喀则地区', 'job_name': '西藏自治区日喀则地区政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区日喀则地区', 'type': '政协', 'rank': 8, 'job_name': '西藏自治区日喀则地区政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局省委常委'}</t>
+          <t>{'begin_time': Timestamp('1977-11-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区党委常委会/政治局省委常委'}</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1988-06-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区人民检察院检察长'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1988-06-01 00:00:00'), 'location': '西藏自治区', 'type': '法院_检察院', 'rank': 7, 'job_name': '西藏自治区人民检察院检察长'}</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 7, 'job_name': '西藏自治区政法委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-07-01 00:00:00'), 'end_time': Timestamp('1986-12-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('1980-07-01 00:00:00'), 'end_time': Timestamp('1986-12-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 6, 'job_name': '西藏自治区组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-03-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '西藏自治区昌都地区', 'job_name': '西藏自治区昌都地区农机局农机厂副局长、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1979-03-01 00:00:00'), 'end_time': Timestamp('1983-10-01 00:00:00'), 'location': '西藏自治区昌都地区', 'type': '政府/国务院', 'rank': 4, 'job_name': '西藏自治区昌都地区农机局农机厂副局长、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-10-01 00:00:00'), 'location': '', 'job_name': '西藏军区政治部群工处正连职、副营职干事'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-10-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '西藏军区政治部群工处正连职、副营职干事'}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1984-05-01 00:00:00'), 'location': '中央', 'job_name': '中央西藏民族学院共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1984-05-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 4, 'job_name': '中央西藏民族学院共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '云南省迪庆藏族自治州中甸县', 'job_name': '云南省迪庆藏族自治州中甸县尼西公社团委书记'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '云南省迪庆藏族自治州中甸县', 'type': '基层组织', 'rank': 0, 'job_name': '云南省迪庆藏族自治州中甸县尼西公社团委书记'}</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省经济贸易委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 7, 'job_name': '甘肃省经济贸易委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1965-07-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省萍乡市', 'job_name': '江西省萍乡市矿务局高坑煤矿副矿长'}</t>
+          <t>{'begin_time': Timestamp('1965-07-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省萍乡市', 'type': '政府/国务院', 'rank': 4, 'job_name': '江西省萍乡市矿务局高坑煤矿副矿长'}</t>
         </is>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1965-07-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省萍乡市', 'job_name': '江西省萍乡市矿务局副局长、局长'}</t>
+          <t>{'begin_time': Timestamp('1965-07-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省萍乡市', 'type': '政府/国务院', 'rank': 7, 'job_name': '江西省萍乡市矿务局副局长、局长'}</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1965-07-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省萍乡市', 'job_name': '江西省萍乡市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1965-07-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江西省萍乡市', 'type': '政府/国务院', 'rank': 7, 'job_name': '江西省萍乡市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省江苏省食品公司加工冷藏科科员、副科长'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省', 'type': '地方企业', 'rank': 0, 'job_name': '江苏省江苏省食品公司加工冷藏科科员、副科长'}</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省泰州市', 'job_name': '江苏省泰州市泰州肉联厂副厂长'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省泰州市', 'type': '地方企业', 'rank': 4, 'job_name': '江苏省泰州市泰州肉联厂副厂长'}</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省商业部/厅/局办公厅/室副主任'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 4, 'job_name': '江苏省商业部/厅/局办公厅/室副主任'}</t>
         </is>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省江苏省食品公司经理'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1985-10-01 00:00:00'), 'location': '江苏省', 'type': '地方企业', 'rank': 5, 'job_name': '江苏省江苏省食品公司经理'}</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '中央', 'job_name': '中央学校部干事、副处长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 4, 'job_name': '中央学校部干事、副处长'}</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '安徽省马鞍山市', 'job_name': '安徽省马鞍山市马鞍山钢铁公司钢铁研究所干部、办事员、团委书记'}</t>
+          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '安徽省马鞍山市', 'type': '地方企业', 'rank': 0, 'job_name': '安徽省马鞍山市马鞍山钢铁公司钢铁研究所干部、办事员、团委书记'}</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '安徽省马鞍山市', 'job_name': '安徽省马鞍山市马鞍山钢铁公司共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '安徽省马鞍山市', 'type': '地方企业', 'rank': 4, 'job_name': '安徽省马鞍山市马鞍山钢铁公司共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市华中科技大学（华中工学院）计算机科学和工程系学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省武汉市', 'type': '学校', 'rank': 1, 'job_name': '湖北省武汉市华中科技大学（华中工学院）计算机科学和工程系学生'}</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1986-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学工程系水资源工程专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1986-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市清华大学工程系水资源工程专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省发展改革/计划委员会副主任、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 7, 'job_name': '甘肃省发展改革/计划委员会副主任、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '甘肃省兰州市', 'job_name': '甘肃省兰州市兰州钢厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '甘肃省兰州市', 'type': '地方企业', 'rank': 0, 'job_name': '甘肃省兰州市兰州钢厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1984-02-01 00:00:00'), 'location': '山西省', 'job_name': '山西省共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1984-02-01 00:00:00'), 'location': '山西省', 'type': '共青团', 'rank': 6, 'job_name': '山西省共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '河南省周口市商水县', 'job_name': '河南省周口市商水县政府/国务院（综合）县长'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '河南省周口市商水县', 'type': '政府/国务院', 'rank': 5, 'job_name': '河南省周口市商水县政府/国务院（综合）县长'}</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '甘肃省兰州市', 'job_name': '甘肃省兰州市兰州大学化学系化学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '甘肃省兰州市', 'type': '学校', 'rank': 1, 'job_name': '甘肃省兰州市兰州大学化学系化学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1986-11-01 00:00:00'), 'location': '江西省南昌市', 'job_name': '江西省南昌市航天工业（第七机械）工业部/厅/局洪都机械厂技术员、秘书、厂办主任'}</t>
+          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1986-11-01 00:00:00'), 'location': '江西省南昌市', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省南昌市航天工业（第七机械）工业部/厅/局洪都机械厂技术员、秘书、厂办主任'}</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-11-01 00:00:00'), 'location': '中央', 'job_name': '中央航天工业（第七机械）工业部/厅/局511站宣传科干事'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-11-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航天工业（第七机械）工业部/厅/局511站宣传科干事'}</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '四川省', 'job_name': '四川省四川财经学院政治经济学系政治经济学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '四川省', 'type': '学校', 'rank': 1, 'job_name': '四川省四川财经学院政治经济学系政治经济学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省地质矿产部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 6, 'job_name': '湖南省地质矿产部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-10-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局北京石油化工总厂前进化工厂副书记'}</t>
+          <t>{'begin_time': Timestamp('1974-10-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 5, 'job_name': '中央石油工业部/厅/局北京石油化工总厂前进化工厂副书记'}</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '陕西省延安市', 'job_name': '陕西省延安市陕西省延安卷烟厂党委副书记、厂长'}</t>
+          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '陕西省延安市', 'type': '地方企业', 'rank': 5, 'job_name': '陕西省延安市陕西省延安卷烟厂党委副书记、厂长'}</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '陕西省延安市', 'job_name': '陕西省延安市陕西省延安柴油机厂副厂长、厂长、党委副书记'}</t>
+          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '陕西省延安市', 'type': '地方企业', 'rank': 5, 'job_name': '陕西省延安市陕西省延安柴油机厂副厂长、厂长、党委副书记'}</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省商业部/厅/局政治处干事'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 0, 'job_name': '青海省商业部/厅/局政治处干事'}</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省青海省商业学校教师、副科长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '青海省', 'type': '学校', 'rank': 0, 'job_name': '青海省青海省商业学校教师、副科长'}</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省商业部/厅/局共青团委政治处副主任、厅团委书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 5, 'job_name': '青海省商业部/厅/局共青团委政治处副主任、厅团委书记'}</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省安徽大学经济系政治经济学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '安徽省', 'type': '学校', 'rank': 0, 'job_name': '安徽省安徽大学经济系政治经济学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市西北工业大学飞行器制造工程系学生'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '陕西省西安市', 'type': '学校', 'rank': 1, 'job_name': '陕西省西安市西北工业大学飞行器制造工程系学生'}</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '辽宁省营口市市郊区', 'job_name': '辽宁省营口市市郊区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '辽宁省营口市市郊区', 'type': '党委', 'rank': 4, 'job_name': '辽宁省营口市市郊区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '辽宁省营口市市郊区', 'job_name': '辽宁省营口市市郊区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '辽宁省营口市市郊区', 'type': '党委', 'rank': 5, 'job_name': '辽宁省营口市市郊区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-03-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区办公厅/室历任数职'}</t>
+          <t>{'begin_time': Timestamp('1973-03-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '共青团', 'rank': 6, 'job_name': '宁夏回族自治区办公厅/室历任数职'}</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区宁夏大学中文系中文专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '学校', 'rank': 1, 'job_name': '宁夏回族自治区宁夏大学中文系中文专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中央民族学院汉语言文学系汉语言文学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市中央民族学院汉语言文学系汉语言文学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '人大', 'rank': 9, 'job_name': '新疆维吾尔自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区建筑勘察设计院副院长'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '其他', 'rank': 6, 'job_name': '新疆维吾尔自治区建筑勘察设计院副院长'}</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '新疆维吾尔自治区喀什地区', 'job_name': '新疆维吾尔自治区喀什地区人事部/厅/局副处长、处长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '新疆维吾尔自治区喀什地区', 'type': '政府/国务院', 'rank': 5, 'job_name': '新疆维吾尔自治区喀什地区人事部/厅/局副处长、处长'}</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-11-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆大学政治系政治理论专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-11-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '学校', 'rank': 1, 'job_name': '新疆维吾尔自治区新疆大学政治系政治理论专业学生'}</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆石油地球物理研究所技术员'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '地方企业', 'rank': 1, 'job_name': '新疆维吾尔自治区新疆石油地球物理研究所技术员'}</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'job_name': '中央电力工业部/厅/局副部长、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央电力工业部/厅/局副部长、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '福建省', 'job_name': '福建省福建师范大学办公厅/室干部'}</t>
+          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1983-09-01 00:00:00'), 'location': '福建省', 'type': '学校', 'rank': 0, 'job_name': '福建省福建师范大学办公厅/室干部'}</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1987-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1987-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会主席'}</t>
+          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 10, 'job_name': '中央总工会主席'}</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1986-11-01 00:00:00'), 'location': '辽宁省鞍山市', 'job_name': '辽宁省鞍山市鞍山化纤毛纺织总厂副厂长'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1986-11-01 00:00:00'), 'location': '辽宁省鞍山市', 'type': '地方企业', 'rank': 4, 'job_name': '辽宁省鞍山市鞍山化纤毛纺织总厂副厂长'}</t>
         </is>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '河北省保定市', 'job_name': '河北省保定市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '河北省保定市', 'type': '党委', 'rank': 8, 'job_name': '河北省保定市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '中央', 'job_name': '中央电子工业（第四机械）部/厅/局第十八研究所所长'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央电子工业（第四机械）部/厅/局第十八研究所所长'}</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校学员'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校学员'}</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '天津市', 'job_name': '天津市天津市科学技术进修学院工业科技管理系统研究班学员'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '天津市', 'type': '学校', 'rank': 7, 'job_name': '天津市天津市科学技术进修学院工业科技管理系统研究班学员'}</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1986-10-01 00:00:00'), 'location': '中央', 'job_name': '中央教育部/厅/局办公厅/室副处长'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1986-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 4, 'job_name': '中央教育部/厅/局办公厅/室副处长'}</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1986-10-01 00:00:00'), 'location': '中央', 'job_name': '中央教育部/厅/局办公厅/室处长'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1986-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 5, 'job_name': '中央教育部/厅/局办公厅/室处长'}</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-12-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省湖南地质学校共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1975-12-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '湖南省', 'type': '学校', 'rank': 0, 'job_name': '湖南省湖南地质学校共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-12-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省地质矿产部/厅/局政治部秘书'}</t>
+          <t>{'begin_time': Timestamp('1975-12-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖南省地质矿产部/厅/局政治部秘书'}</t>
         </is>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '山西省', 'job_name': '山西省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 8, 'job_name': '山西省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1987-08-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1987-08-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 8, 'job_name': '湖北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1987-08-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1987-08-01 00:00:00'), 'location': '湖北省武汉市', 'type': '党委', 'rank': 8, 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '山东省烟台市乳山县', 'job_name': '山东省烟台市乳山县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '山东省烟台市乳山县', 'type': '党委', 'rank': 4, 'job_name': '山东省烟台市乳山县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省电子工业（第四机械）部/厅/局副局长、总工程师、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省', 'type': '政府/国务院', 'rank': 6, 'job_name': '辽宁省电子工业（第四机械）部/厅/局副局长、总工程师、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '四川省自贡市', 'job_name': '四川省自贡市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '四川省自贡市', 'type': '政府/国务院', 'rank': 6, 'job_name': '四川省自贡市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '四川省自贡市', 'job_name': '四川省自贡市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '四川省自贡市', 'type': '党委', 'rank': 7, 'job_name': '四川省自贡市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '吉林省延边朝鲜族自治州', 'job_name': '吉林省延边朝鲜族自治州延边大学副校长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '吉林省延边朝鲜族自治州', 'type': '学校', 'rank': 4, 'job_name': '吉林省延边朝鲜族自治州延边大学副校长'}</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '山东省', 'job_name': '山东省莱阳农学院农学系农学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '山东省', 'type': '学校', 'rank': 1, 'job_name': '山东省莱阳农学院农学系农学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省铁岭市', 'job_name': '辽宁省铁岭市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1976-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省铁岭市', 'type': '党委', 'rank': 7, 'job_name': '辽宁省铁岭市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省铁岭市', 'job_name': '辽宁省铁岭市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1976-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '辽宁省铁岭市', 'type': '党委', 'rank': 7, 'job_name': '辽宁省铁岭市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '河南省洛阳市孟津县', 'job_name': '河南省洛阳市孟津县孟津县平乐高中教师'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '河南省洛阳市孟津县', 'type': '学校', 'rank': 1, 'job_name': '河南省洛阳市孟津县孟津县平乐高中教师'}</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '河南省洛阳市孟津县', 'job_name': '河南省洛阳市孟津县办公厅/室干事'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '河南省洛阳市孟津县', 'type': '党委', 'rank': 0, 'job_name': '河南省洛阳市孟津县办公厅/室干事'}</t>
         </is>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江苏省常州市', 'job_name': '江苏省常州市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江苏省常州市', 'type': '政府/国务院', 'rank': 7, 'job_name': '江苏省常州市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江苏省常州市', 'job_name': '江苏省常州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '江苏省常州市', 'type': '党委', 'rank': 7, 'job_name': '江苏省常州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市复旦大学数学系学生、团总支部书记'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 0, 'job_name': '上海市复旦大学数学系学生、团总支部书记'}</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省沈阳农业大学党委揭批办公室主任副主任、讲师'}</t>
+          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '辽宁省', 'type': '学校', 'rank': 4, 'job_name': '辽宁省沈阳农业大学党委揭批办公室主任副主任、讲师'}</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省沈阳农业大学党委委员、党委宣传部副部长'}</t>
+          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '辽宁省', 'type': '学校', 'rank': 4, 'job_name': '辽宁省沈阳农业大学党委委员、党委宣传部副部长'}</t>
         </is>
       </c>
     </row>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省沈阳农业大学马列主义教研室党支部书记'}</t>
+          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '辽宁省', 'type': '学校', 'rank': 4, 'job_name': '辽宁省沈阳农业大学马列主义教研室党支部书记'}</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '内蒙古自治区兴安盟扎赉特旗', 'job_name': '内蒙古自治区兴安盟扎赉特旗党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '内蒙古自治区兴安盟扎赉特旗', 'type': '党委', 'rank': 4, 'job_name': '内蒙古自治区兴安盟扎赉特旗党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国人民大学国民经济管理系学生'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1984-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市中国人民大学国民经济管理系学生'}</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省革命委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖南省革命委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-10-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1955-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '江西省南昌市南昌县', 'job_name': '江西省南昌市南昌县农业部/厅/局工作'}</t>
+          <t>{'begin_time': Timestamp('1955-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '江西省南昌市南昌县', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省南昌市南昌县农业部/厅/局工作'}</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1955-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '江西省', 'job_name': '江西省江西省蚕桑叶研究所科研办公室副主任、副所长'}</t>
+          <t>{'begin_time': Timestamp('1955-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 6, 'job_name': '江西省江西省蚕桑叶研究所科研办公室副主任、副所长'}</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-02-01 00:00:00'), 'end_time': Timestamp('1986-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市前卫农场副书记、场长'}</t>
+          <t>{'begin_time': Timestamp('1977-02-01 00:00:00'), 'end_time': Timestamp('1986-09-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 5, 'job_name': '上海市前卫农场副书记、场长'}</t>
         </is>
       </c>
     </row>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京化工局职工大学试剂总厂分校有机化学试剂专业学员'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市北京化工局职工大学试剂总厂分校有机化学试剂专业学员'}</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省财政部/厅/局监察处办事员'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1984-12-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 0, 'job_name': '四川省财政部/厅/局监察处办事员'}</t>
         </is>
       </c>
     </row>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '内蒙古自治区呼伦贝尔市', 'job_name': '内蒙古自治区呼伦贝尔市政府/国务院（综合）代秘书长'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '内蒙古自治区呼伦贝尔市', 'type': '政府/国务院', 'rank': 5, 'job_name': '内蒙古自治区呼伦贝尔市政府/国务院（综合）代秘书长'}</t>
         </is>
       </c>
     </row>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省新华通讯社安徽分社记者、组长'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1984-03-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 0, 'job_name': '安徽省新华通讯社安徽分社记者、组长'}</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省中国人民银行湖北省分行行长'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 7, 'job_name': '湖北省中国人民银行湖北省分行行长'}</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'job_name': '中央航空工业（第三机械）部/厅/局116厂15车间技术员'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空工业（第三机械）部/厅/局116厂15车间技术员'}</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '广东省湛江市', 'job_name': '广东省湛江市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '广东省湛江市', 'type': '党委', 'rank': 7, 'job_name': '广东省湛江市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 7, 'job_name': '广东省办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局副秘书长'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 7, 'job_name': '广东省党委常委会/政治局副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区煤炭工业部/厅/局副局长、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-11-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 6, 'job_name': '广西壮族自治区煤炭工业部/厅/局副局长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖北省荆州市', 'job_name': '湖北省荆州市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '湖北省荆州市', 'type': '党委', 'rank': 6, 'job_name': '湖北省荆州市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省宣传部副部长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '安徽省', 'type': '共青团', 'rank': 4, 'job_name': '安徽省宣传部副部长'}</t>
         </is>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1985-08-01 00:00:00'), 'location': '中央', 'job_name': '中央冶金工业部/厅/局画眉坳钨矿历任数职'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1985-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 4, 'job_name': '中央冶金工业部/厅/局画眉坳钨矿历任数职'}</t>
         </is>
       </c>
     </row>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学哲学系哲学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市北京大学哲学系哲学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江苏省镇江市', 'job_name': '江苏省镇江市镇江焦化厂历任数职'}</t>
+          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江苏省镇江市', 'type': '地方企业', 'rank': 4, 'job_name': '江苏省镇江市镇江焦化厂历任数职'}</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江苏省镇江市', 'job_name': '江苏省镇江市发展改革/计划委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江苏省镇江市', 'type': '政府/国务院', 'rank': 5, 'job_name': '江苏省镇江市发展改革/计划委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江苏省镇江市', 'job_name': '江苏省镇江市经济贸易委员会主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1972-06-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '江苏省镇江市', 'type': '政府/国务院', 'rank': 5, 'job_name': '江苏省镇江市经济贸易委员会主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '吉林省', 'type': '共青团', 'rank': 7, 'job_name': '吉林省共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省甘肃工业大学副校长、党委常委'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '甘肃省', 'type': '学校', 'rank': 4, 'job_name': '甘肃省甘肃工业大学副校长、党委常委'}</t>
         </is>
       </c>
     </row>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-01-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局秦皇岛港务管理局计划处统计员、计划员、副处长'}</t>
+          <t>{'begin_time': Timestamp('1972-01-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 4, 'job_name': '中央交通部/厅/局秦皇岛港务管理局计划处统计员、计划员、副处长'}</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '四川省', 'job_name': '四川省革命委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 8, 'job_name': '四川省革命委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '四川省雅安市', 'job_name': '四川省雅安市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '四川省雅安市', 'type': '党委', 'rank': 0, 'job_name': '四川省雅安市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '四川省雅安市', 'job_name': '四川省雅安市农村工作办公室主任'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '四川省雅安市', 'type': '政府/国务院', 'rank': 0, 'job_name': '四川省雅安市农村工作办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局辽河石油勘探局副局长'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央石油工业部/厅/局辽河石油勘探局副局长'}</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '甘肃省兰州市榆中县', 'job_name': '甘肃省兰州市榆中县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '甘肃省兰州市榆中县', 'type': '党委', 'rank': 5, 'job_name': '甘肃省兰州市榆中县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省辽宁大学哲学系哲学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-03-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '辽宁省', 'type': '学校', 'rank': 1, 'job_name': '辽宁省辽宁大学哲学系哲学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省住房和城乡建设部/厅/局副主任'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 6, 'job_name': '甘肃省住房和城乡建设部/厅/局副主任'}</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '河南省南阳市', 'job_name': '河南省南阳市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '河南省南阳市', 'type': '党委', 'rank': 7, 'job_name': '河南省南阳市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '河南省南阳市', 'job_name': '河南省南阳市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '河南省南阳市', 'type': '党委', 'rank': 7, 'job_name': '河南省南阳市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '辽宁省大连市', 'job_name': '辽宁省大连市共青团委副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '辽宁省大连市', 'type': '共青团', 'rank': 4, 'job_name': '辽宁省大连市共青团委副书记'}</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '辽宁省大连市', 'job_name': '辽宁省大连市青年联合会副主席'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '辽宁省大连市', 'type': '共青团', 'rank': 4, 'job_name': '辽宁省大连市青年联合会副主席'}</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央青农部副处长、处长'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 5, 'job_name': '中央青农部副处长、处长'}</t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区西藏民族学院语文系汉语言文学专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '西藏自治区', 'type': '学校', 'rank': 1, 'job_name': '西藏自治区西藏民族学院语文系汉语言文学专业学生'}</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'job_name': '中央地震局副局长、党组副书记、代理局长、党组代理书记'}</t>
+          <t>{'begin_time': Timestamp('1977-06-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央地震局副局长、党组副书记、代理局长、党组代理书记'}</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省轻工业部/厅/局厅长'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 7, 'job_name': '甘肃省轻工业部/厅/局厅长'}</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局青海石油管理局局长、党委副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央石油工业部/厅/局青海石油管理局局长、党委副书记'}</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1984-02-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区气象局副局长、局长'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1984-02-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '西藏自治区气象局副局长、局长'}</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '山东省烟台市', 'job_name': '山东省烟台市经济贸易委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '山东省烟台市', 'type': '政府/国务院', 'rank': 5, 'job_name': '山东省烟台市经济贸易委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '山东省烟台市', 'job_name': '山东省烟台市冶金工业部/厅/局局长'}</t>
+          <t>{'begin_time': Timestamp('1978-06-01 00:00:00'), 'end_time': Timestamp('1984-06-01 00:00:00'), 'location': '山东省烟台市', 'type': '政府/国务院', 'rank': 5, 'job_name': '山东省烟台市冶金工业部/厅/局局长'}</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '黑龙江省大兴安岭地区塔河县', 'job_name': '黑龙江省大兴安岭地区塔河县共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '黑龙江省大兴安岭地区塔河县', 'type': '共青团', 'rank': 5, 'job_name': '黑龙江省大兴安岭地区塔河县共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-07-01 00:00:00'), 'end_time': Timestamp('1986-08-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部经济干部局、中央机关干部局、经济科教干部局干事'}</t>
+          <t>{'begin_time': Timestamp('1978-07-01 00:00:00'), 'end_time': Timestamp('1986-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央组织部经济干部局、中央机关干部局、经济科教干部局干事'}</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'job_name': '中央石油工业部/厅/局新疆石油管理局副局长、副总地质师、党委常委'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央石油工业部/厅/局新疆石油管理局副局长、副总地质师、党委常委'}</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '山东省潍坊市寿光县', 'job_name': '山东省潍坊市寿光县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '山东省潍坊市寿光县', 'type': '党委', 'rank': 5, 'job_name': '山东省潍坊市寿光县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '云南省', 'job_name': '云南省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '云南省', 'type': '人大', 'rank': 0, 'job_name': '云南省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 0, 'job_name': '江西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '江西省', 'job_name': '江西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省农业办公室主任'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '陕西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '陕西省农业办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1984-10-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1984-10-01 00:00:00'), 'location': '陕西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '陕西省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '山东', 'job_name': '山东党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '山东', 'type': '党委', 'rank': 0, 'job_name': '山东党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '', 'job_name': '济南军区顾问'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '济南军区顾问'}</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 0, 'job_name': '上海市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '湖北省', 'type': '人大', 'rank': 0, 'job_name': '湖北省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 0, 'job_name': '湖北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省军区政治委员'}</t>
+          <t>{'begin_time': Timestamp('1978-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省', 'type': '军队', 'rank': 0, 'job_name': '湖北省军区政治委员'}</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '辽宁省', 'type': '政府/国务院', 'rank': 0, 'job_name': '辽宁省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1984-10-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1984-10-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 0, 'job_name': '天津市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '贵州省', 'type': '党委', 'rank': 0, 'job_name': '贵州省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央民族事务委员会政研组副组长'}</t>
+          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央民族事务委员会政研组副组长'}</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区农牧厅厅长'}</t>
+          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 0, 'job_name': '西藏自治区农牧厅厅长'}</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区人大常委会秘书长'}</t>
+          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'type': '人大', 'rank': 0, 'job_name': '西藏自治区人大常委会秘书长'}</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'job_name': '西藏自治区拉萨市党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1949-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区拉萨市党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-05-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'job_name': '中央冶金工业部/厅/局重庆钢铁设计院副院长'}</t>
+          <t>{'begin_time': Timestamp('1978-05-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 0, 'job_name': '中央冶金工业部/厅/局重庆钢铁设计院副院长'}</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-04-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'job_name': '中央农垦部部长'}</t>
+          <t>{'begin_time': Timestamp('1979-04-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央农垦部部长'}</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1985-06-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 0, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1972-11-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1972-11-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 0, 'job_name': '湖北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部政治部副主任'}</t>
+          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央宣传部政治部副主任'}</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'job_name': '中央民族出版社副书记'}</t>
+          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'type': '新闻媒体', 'rank': 0, 'job_name': '中央民族出版社副书记'}</t>
         </is>
       </c>
     </row>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'job_name': '中央民族事务委员会委员'}</t>
+          <t>{'begin_time': Timestamp('1971-01-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央民族事务委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '黑龙江省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省发展改革/计划委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1985-01-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '黑龙江省发展改革/计划委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 0, 'job_name': '天津市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1980-06-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 0, 'job_name': '天津市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '广东省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-11-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-11-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 0, 'job_name': '湖北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖北省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江苏省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 0, 'job_name': '山西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '江西省', 'job_name': '江西省革命委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1974-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省革命委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1966-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '', 'job_name': '西南铝加工厂国营112厂总工程师'}</t>
+          <t>{'begin_time': Timestamp('1966-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '', 'type': '国有企业', 'rank': 0, 'job_name': '西南铝加工厂国营112厂总工程师'}</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1966-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '', 'job_name': '西南铝加工厂国营112厂厂长'}</t>
+          <t>{'begin_time': Timestamp('1966-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '', 'type': '国有企业', 'rank': 0, 'job_name': '西南铝加工厂国营112厂厂长'}</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '河北省石家庄市', 'job_name': '河北省石家庄市畜牧局副局长'}</t>
+          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '河北省石家庄市', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省石家庄市畜牧局副局长'}</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '河北省石家庄市', 'job_name': '河北省石家庄市政府/国务院（综合）副专员'}</t>
+          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '河北省石家庄市', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省石家庄市政府/国务院（综合）副专员'}</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '河北省石家庄市', 'job_name': '河北省石家庄市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1976-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '河北省石家庄市', 'type': '党委', 'rank': 0, 'job_name': '河北省石家庄市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 0, 'job_name': '河北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 0, 'job_name': '内蒙古自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '内蒙古自治区', 'type': '政府/国务院', 'rank': 0, 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央航天工业（第七机械）工业部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航天工业（第七机械）工业部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-05-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-05-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 0, 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '河南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'job_name': '中央国家农业委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央国家农业委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1986-01-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1986-01-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '党委', 'rank': 0, 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 0, 'job_name': '广东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广东省广州市', 'type': '党委', 'rank': 0, 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1974-11-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 0, 'job_name': '福建省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-01-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '', 'job_name': '福州军区政治委员'}</t>
+          <t>{'begin_time': Timestamp('1975-01-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '福州军区政治委员'}</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '福建省', 'job_name': '福建省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '福建省', 'type': '人大', 'rank': 0, 'job_name': '福建省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '云南省', 'job_name': '云南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 0, 'job_name': '云南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '云南省', 'job_name': '云南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '云南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学水利工程系水电工程专业学生'}</t>
+          <t>{'begin_time': Timestamp('1978-09-01 00:00:00'), 'end_time': Timestamp('1983-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市清华大学水利工程系水电工程专业学生'}</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-09-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 0, 'job_name': '广东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1965-06-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1965-06-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-03-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-03-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 0, 'job_name': '四川省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1984-05-01 00:00:00'), 'location': '广西壮族自治区隆安县', 'job_name': '广西壮族自治区隆安县党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1984-05-01 00:00:00'), 'location': '广西壮族自治区隆安县', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区隆安县党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '山西省', 'job_name': '山西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-05-01 00:00:00'), 'location': '陕西省', 'type': '人大', 'rank': 0, 'job_name': '陕西省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1984-08-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1984-08-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 0, 'job_name': '陕西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '政府/国务院', 'rank': 0, 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '福建省', 'job_name': '福建省革命委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1975-06-01 00:00:00'), 'end_time': Timestamp('1982-07-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 0, 'job_name': '福建省革命委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '福建省', 'type': '政府/国务院', 'rank': 0, 'job_name': '福建省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1958-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '江西省', 'job_name': '江西省新余钢铁公司基建处技术员'}</t>
+          <t>{'begin_time': Timestamp('1958-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '江西省', 'type': '地方企业', 'rank': 0, 'job_name': '江西省新余钢铁公司基建处技术员'}</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1958-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '江西省', 'job_name': '江西省新余钢铁公司厂长'}</t>
+          <t>{'begin_time': Timestamp('1958-01-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '江西省', 'type': '地方企业', 'rank': 0, 'job_name': '江西省新余钢铁公司厂长'}</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '', 'job_name': '武汉军区副政治委员'}</t>
+          <t>{'begin_time': Timestamp('1980-08-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '武汉军区副政治委员'}</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1985-12-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 0, 'job_name': '广东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'job_name': '中央航天工业（第七机械）工业部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1982-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航天工业（第七机械）工业部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-03-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-03-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '贵州省', 'type': '党委', 'rank': 0, 'job_name': '贵州省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 0, 'job_name': '贵州省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1971-04-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1971-04-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 0, 'job_name': '山东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-05-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-05-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 0, 'job_name': '湖南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1952-08-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1952-08-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1958-03-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1958-03-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 0, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1985-09-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1985-09-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1988-07-01 00:00:00'), 'location': '浙江省丽水市', 'job_name': '浙江省丽水市地委党校资料员'}</t>
+          <t>{'begin_time': Timestamp('1980-10-01 00:00:00'), 'end_time': Timestamp('1988-07-01 00:00:00'), 'location': '浙江省丽水市', 'type': '学校', 'rank': 0, 'job_name': '浙江省丽水市地委党校资料员'}</t>
         </is>
       </c>
     </row>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-02-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-02-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中央财经领导小组成员'}</t>
+          <t>{'begin_time': Timestamp('1980-03-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央财经领导小组成员'}</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1988-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '中央', 'job_name': '中央航空工业（第三机械）部/厅/局秦岭公司生产部组长'}</t>
+          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '中央', 'type': '国有企业', 'rank': 0, 'job_name': '中央航空工业（第三机械）部/厅/局秦岭公司生产部组长'}</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '江西省', 'job_name': '江西省知青办宣传处处长'}</t>
+          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省知青办宣传处处长'}</t>
         </is>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '江西省', 'job_name': '江西省人力资源和社会保障部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江西省人力资源和社会保障部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '江西省', 'job_name': '江西省妇女联合会主任'}</t>
+          <t>{'begin_time': Timestamp('1970-01-01 00:00:00'), 'end_time': Timestamp('1984-04-01 00:00:00'), 'location': '江西省', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '江西省妇女联合会主任'}</t>
         </is>
       </c>
     </row>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 0, 'job_name': '上海市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆军区政治委员'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '军队', 'rank': 0, 'job_name': '新疆维吾尔自治区新疆军区政治委员'}</t>
         </is>
       </c>
     </row>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省宁波市', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市革命委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省宁波市', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省宁波市革命委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省革命委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省革命委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('1978-12-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '江西省', 'job_name': '江西省江西大学哲学系马列主义基础理论专业学生'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '江西省', 'type': '学校', 'rank': 0, 'job_name': '江西省江西大学哲学系马列主义基础理论专业学生'}</t>
         </is>
       </c>
     </row>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-03-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '安徽省滁县地区', 'job_name': '安徽省滁县地区革命委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1975-03-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '安徽省滁县地区', 'type': '政府/国务院', 'rank': 0, 'job_name': '安徽省滁县地区革命委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-03-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '安徽省滁县地区', 'job_name': '安徽省滁县地区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1975-03-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '安徽省滁县地区', 'type': '党委', 'rank': 0, 'job_name': '安徽省滁县地区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '中央', 'job_name': '中央人民解放军总政治部主任'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '中央', 'type': '军队', 'rank': 0, 'job_name': '中央人民解放军总政治部主任'}</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '中央', 'job_name': '中央军事委员会副秘书长'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1982-09-01 00:00:00'), 'location': '中央', 'type': '军队', 'rank': 0, 'job_name': '中央军事委员会副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-08-01 00:00:00'), 'end_time': Timestamp('1987-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1973-08-01 00:00:00'), 'end_time': Timestamp('1987-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1975-01-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1975-01-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省民族工作委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省民族工作委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省革命委员会农业组副组长'}</t>
+          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 0, 'job_name': '四川省革命委员会农业组副组长'}</t>
         </is>
       </c>
     </row>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省人大常委会副主任'}</t>
+          <t>{'begin_time': Timestamp('1973-01-01 00:00:00'), 'end_time': Timestamp('1982-01-01 00:00:00'), 'location': '四川省', 'type': '人大', 'rank': 0, 'job_name': '四川省人大常委会副主任'}</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-12-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 0, 'job_name': '福建省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-02-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-02-01 00:00:00'), 'end_time': Timestamp('1983-03-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 0, 'job_name': '江苏省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-04-01 00:00:00'), 'location': '江苏省', 'type': '人大', 'rank': 0, 'job_name': '江苏省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('1977-01-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1987-09-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1987-09-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1979-02-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '浙江省', 'type': '政协', 'rank': 0, 'job_name': '浙江省政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1977-12-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 0, 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '', 'job_name': '西藏军区书记'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1985-07-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '西藏军区书记'}</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '', 'job_name': '成都军区司令员'}</t>
+          <t>{'begin_time': Timestamp('1980-01-01 00:00:00'), 'end_time': Timestamp('1982-10-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '成都军区司令员'}</t>
         </is>
       </c>
     </row>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 0, 'job_name': '吉林省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1980-04-01 00:00:00'), 'end_time': Timestamp('1982-06-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 0, 'job_name': '吉林省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1977-08-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 0, 'job_name': '陕西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-12-01 00:00:00'), 'end_time': Timestamp('1983-02-01 00:00:00'), 'location': '陕西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '陕西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-11-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-11-01 00:00:00'), 'end_time': Timestamp('1985-03-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 0, 'job_name': '吉林省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '青海省', 'job_name': '青海省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 0, 'job_name': '青海省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '青海省', 'job_name': '青海省顾问委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1979-01-01 00:00:00'), 'end_time': Timestamp('1983-01-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省顾问委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1982-02-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 0, 'job_name': '安徽省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1978-04-01 00:00:00'), 'end_time': Timestamp('1982-12-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '中央', 'job_name': '中央粮食部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1982-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央粮食部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -9950,7 +9950,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'job_name': '中央农业部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1979-06-01 00:00:00'), 'end_time': Timestamp('1982-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央农业部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '云南省', 'job_name': '云南省革命委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1979-03-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '云南省革命委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '云南省', 'job_name': '云南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1979-08-01 00:00:00'), 'end_time': Timestamp('1982-08-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 0, 'job_name': '云南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1978-02-01 00:00:00'), 'end_time': Timestamp('1983-06-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1989-06-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1979-09-01 00:00:00'), 'end_time': Timestamp('1989-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1989-06-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1980-02-01 00:00:00'), 'end_time': Timestamp('1989-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1987-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）总理'}</t>
+          <t>{'begin_time': Timestamp('1980-09-01 00:00:00'), 'end_time': Timestamp('1987-11-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）总理'}</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1986-03-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-10-01 00:00:00'), 'end_time': Timestamp('1986-03-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 0, 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市革命委员会秘书长'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '贵州省贵阳市', 'type': '政府/国务院', 'rank': 0, 'job_name': '贵州省贵阳市革命委员会秘书长'}</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '贵州省贵阳市', 'type': '党委', 'rank': 0, 'job_name': '贵州省贵阳市党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1978-01-01 00:00:00'), 'end_time': Timestamp('1983-08-01 00:00:00'), 'location': '贵州省贵阳市', 'type': '党委', 'rank': 0, 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
